--- a/celldex_30min_1mgkg_psilo_inj_11.21.23.xlsx
+++ b/celldex_30min_1mgkg_psilo_inj_11.21.23.xlsx
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://somumaryland-my.sharepoint.com/personal/mmadden_som_umaryland_edu/Documents/Documents/GitHub Repos/Pincer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC10487FC11D54BE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA6025ED-1DAC-493E-BD16-12AB618FE1C9}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC10487FC11D54BE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D2B6530-5213-4E57-BD73-FF352DE417FC}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CellLabels" sheetId="2" r:id="rId1"/>
     <sheet name="TraceIndex" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -953,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678C48D5-0F26-4146-9EC8-47116459B2FD}">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5736,8 +5747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
